--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A304506-670E-4E73-85DD-2CE0399F5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3F0D54-A73F-4F11-9962-C29DA5ED6C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>COLOR</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>Avoid money related</t>
+  </si>
+  <si>
+    <t>N2.Silver</t>
+  </si>
+  <si>
+    <t>N2.Blue</t>
+  </si>
+  <si>
+    <t>N3.Blue</t>
+  </si>
+  <si>
+    <t>*** forgot to note about my and Gorkem's observation: screen kind of bar like</t>
+  </si>
+  <si>
+    <t>*** Forgot to include the decimals</t>
+  </si>
+  <si>
+    <t>*** When I move the photometer slightly, the numbers can change drastically</t>
+  </si>
+  <si>
+    <t>For example: silver in one area around 100 while it is 110 in another slightly moved area</t>
   </si>
 </sst>
 </file>
@@ -677,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B312E3A-0048-4570-B544-6BF802346B2B}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +714,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,7 +740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -760,7 +781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -819,7 +840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
@@ -869,392 +890,454 @@
         <f>AVERAGE(L4:U4)</f>
         <v>102.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>194</v>
+      </c>
+      <c r="F5">
+        <v>194</v>
+      </c>
+      <c r="G5">
+        <v>194</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>192</v>
+      </c>
+      <c r="F6">
+        <v>192</v>
+      </c>
+      <c r="G6">
+        <v>192</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="2">
+        <v>101.5</v>
+      </c>
+      <c r="M6">
+        <v>101.6</v>
+      </c>
+      <c r="N6">
+        <v>101.2</v>
+      </c>
+      <c r="O6">
+        <v>100.8</v>
+      </c>
+      <c r="P6">
+        <v>100.6</v>
+      </c>
+      <c r="Q6">
+        <v>100.6</v>
+      </c>
+      <c r="R6">
+        <v>100.5</v>
+      </c>
+      <c r="S6">
+        <v>100.4</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>99.72</v>
+      </c>
+      <c r="V6">
+        <f>AVERAGE(L6:U6)</f>
+        <v>100.69200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6">
+      <c r="D7" s="9"/>
+      <c r="E7">
         <v>62</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>230</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>92</v>
       </c>
-      <c r="H6" s="4">
-        <f>(E6/255)*2-1</f>
+      <c r="H7" s="4">
+        <f>(E7/255)*2-1</f>
         <v>-0.51372549019607838</v>
       </c>
-      <c r="I6" s="4">
-        <f>(F6/255)*2-1</f>
+      <c r="I7" s="4">
+        <f>(F7/255)*2-1</f>
         <v>0.80392156862745101</v>
       </c>
-      <c r="J6" s="4">
-        <f>(G6/255)*2-1</f>
+      <c r="J7" s="4">
+        <f>(G7/255)*2-1</f>
         <v>-0.27843137254901962</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>102.7</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>103.8</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>103.3</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>102.4</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>102.9</v>
       </c>
-      <c r="Q6">
-        <f>AVERAGE(L6:P6)</f>
+      <c r="Q7">
+        <f>AVERAGE(L7:P7)</f>
         <v>103.02000000000001</v>
       </c>
-      <c r="R6">
-        <f>STDEV(L6:P6)</f>
+      <c r="R7">
+        <f>STDEV(L7:P7)</f>
         <v>0.54497706373754473</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="T8" t="s">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="T9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9">
+      <c r="D10" s="10"/>
+      <c r="E10">
         <v>246</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>173</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>129</v>
       </c>
-      <c r="H9" s="4">
-        <f>(E9/255)*2-1</f>
+      <c r="H10" s="4">
+        <f>(E10/255)*2-1</f>
         <v>0.92941176470588238</v>
       </c>
-      <c r="I9" s="4">
-        <f>(F9/255)*2-1</f>
+      <c r="I10" s="4">
+        <f>(F10/255)*2-1</f>
         <v>0.35686274509803928</v>
       </c>
-      <c r="J9" s="4">
-        <f>(G9/255)*2-1</f>
+      <c r="J10" s="4">
+        <f>(G10/255)*2-1</f>
         <v>1.1764705882352899E-2</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>94</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>93.6</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>93.4</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>92.01</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>91.08</v>
       </c>
-      <c r="Q9">
-        <f>AVERAGE(L9:P9)</f>
+      <c r="Q10">
+        <f>AVERAGE(L10:P10)</f>
         <v>92.817999999999998</v>
       </c>
-      <c r="R9">
-        <f>STDEV(L9:P9)</f>
+      <c r="R10">
+        <f>STDEV(L10:P10)</f>
         <v>1.2268740766680168</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12">
+      <c r="D13" s="11"/>
+      <c r="E13">
         <v>117</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>207</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>253</v>
       </c>
-      <c r="H12" s="4">
-        <f>(E12/255)*2-1</f>
+      <c r="H13" s="4">
+        <f>(E13/255)*2-1</f>
         <v>-8.2352941176470629E-2</v>
       </c>
-      <c r="I12" s="4">
-        <f>(F12/255)*2-1</f>
+      <c r="I13" s="4">
+        <f>(F13/255)*2-1</f>
         <v>0.62352941176470589</v>
       </c>
-      <c r="J12" s="4">
-        <f>(G12/255)*2-1</f>
+      <c r="J13" s="4">
+        <f>(G13/255)*2-1</f>
         <v>0.98431372549019613</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>99.14</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>99.55</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>98.54</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>97.66</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>96.62</v>
       </c>
-      <c r="Q12">
-        <f>AVERAGE(L12:P12)</f>
+      <c r="Q13">
+        <f>AVERAGE(L13:P13)</f>
         <v>98.301999999999992</v>
       </c>
-      <c r="R12">
-        <f>STDEV(L12:P12)</f>
+      <c r="R13">
+        <f>STDEV(L13:P13)</f>
         <v>1.1787366118009555</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>119</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>209</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>255</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="L13">
-        <v>112</v>
-      </c>
-      <c r="M13">
-        <v>108</v>
-      </c>
-      <c r="N13">
-        <v>108</v>
-      </c>
-      <c r="O13">
-        <v>108</v>
-      </c>
-      <c r="P13">
-        <v>106</v>
-      </c>
-      <c r="Q13">
-        <v>106</v>
-      </c>
-      <c r="R13">
-        <v>107</v>
-      </c>
-      <c r="S13">
-        <v>107</v>
-      </c>
-      <c r="T13">
-        <v>109</v>
-      </c>
-      <c r="U13">
-        <v>109</v>
-      </c>
-      <c r="V13">
-        <f>AVERAGE(L13:U13)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="L14">
+        <v>112</v>
+      </c>
+      <c r="M14">
+        <v>108</v>
+      </c>
+      <c r="N14">
+        <v>108</v>
+      </c>
+      <c r="O14">
+        <v>108</v>
+      </c>
+      <c r="P14">
+        <v>106</v>
+      </c>
+      <c r="Q14">
+        <v>106</v>
+      </c>
+      <c r="R14">
+        <v>107</v>
+      </c>
+      <c r="S14">
+        <v>107</v>
+      </c>
+      <c r="T14">
+        <v>109</v>
+      </c>
+      <c r="U14">
+        <v>109</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(L14:U14)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
       <c r="E15">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="G15">
-        <v>198</v>
-      </c>
-      <c r="H15" s="4">
-        <f>(E15/255)*2-1</f>
-        <v>0.30196078431372553</v>
-      </c>
-      <c r="I15" s="4">
-        <f>(F15/255)*2-1</f>
-        <v>0.25490196078431371</v>
-      </c>
-      <c r="J15" s="4">
-        <f>(G15/255)*2-1</f>
-        <v>0.55294117647058827</v>
-      </c>
-      <c r="L15">
-        <v>66.38</v>
-      </c>
-      <c r="M15">
-        <v>65.48</v>
-      </c>
-      <c r="N15">
-        <v>65.319999999999993</v>
-      </c>
-      <c r="O15">
-        <v>65.069999999999993</v>
-      </c>
-      <c r="P15">
-        <v>64.92</v>
-      </c>
-      <c r="Q15">
-        <f>AVERAGE(L15:P15)</f>
-        <v>65.433999999999997</v>
-      </c>
-      <c r="R15">
-        <f>STDEV(L15:P15)</f>
-        <v>0.57155927076725743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>118</v>
+      </c>
+      <c r="F16">
+        <v>208</v>
+      </c>
+      <c r="G16">
+        <v>254</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
+      <c r="L16">
+        <v>111.7</v>
+      </c>
+      <c r="M16">
+        <v>105.7</v>
+      </c>
+      <c r="N16">
+        <v>104.1</v>
+      </c>
+      <c r="O16">
+        <v>102.7</v>
+      </c>
+      <c r="P16">
+        <v>103.8</v>
+      </c>
+      <c r="Q16">
+        <v>102.7</v>
+      </c>
+      <c r="R16">
+        <v>102.5</v>
+      </c>
+      <c r="S16">
+        <v>102.3</v>
+      </c>
+      <c r="T16">
+        <v>102</v>
+      </c>
+      <c r="U16">
+        <v>102.2</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(L16:U16)</f>
+        <v>103.97</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="T17" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F18">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G18">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="H18" s="4">
         <f>(E18/255)*2-1</f>
-        <v>0.47450980392156872</v>
+        <v>0.30196078431372553</v>
       </c>
       <c r="I18" s="4">
         <f>(F18/255)*2-1</f>
-        <v>0.37254901960784315</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="J18" s="4">
         <f>(G18/255)*2-1</f>
-        <v>-0.36470588235294121</v>
+        <v>0.55294117647058827</v>
       </c>
       <c r="L18">
-        <v>74.27</v>
+        <v>66.38</v>
       </c>
       <c r="M18">
-        <v>73.66</v>
+        <v>65.48</v>
       </c>
       <c r="N18">
-        <v>73.97</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="O18">
-        <v>73.94</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="P18">
-        <v>74.7</v>
+        <v>64.92</v>
       </c>
       <c r="Q18">
         <f>AVERAGE(L18:P18)</f>
-        <v>74.108000000000004</v>
+        <v>65.433999999999997</v>
       </c>
       <c r="R18">
         <f>STDEV(L18:P18)</f>
-        <v>0.39518350167991773</v>
-      </c>
-      <c r="T18" t="s">
-        <v>32</v>
+        <v>0.57155927076725743</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1266,61 +1349,67 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F21">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G21">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H21" s="4">
         <f>(E21/255)*2-1</f>
-        <v>0.70196078431372544</v>
+        <v>0.47450980392156872</v>
       </c>
       <c r="I21" s="4">
         <f>(F21/255)*2-1</f>
-        <v>0.19215686274509802</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="J21" s="4">
         <f>(G21/255)*2-1</f>
-        <v>-0.23921568627450984</v>
+        <v>-0.36470588235294121</v>
       </c>
       <c r="L21">
-        <v>71.17</v>
+        <v>74.27</v>
       </c>
       <c r="M21">
-        <v>70.239999999999995</v>
+        <v>73.66</v>
       </c>
       <c r="N21">
-        <v>69.88</v>
+        <v>73.97</v>
       </c>
       <c r="O21">
-        <v>79.81</v>
+        <v>73.94</v>
       </c>
       <c r="P21">
-        <v>79.86</v>
+        <v>74.7</v>
       </c>
       <c r="Q21">
         <f>AVERAGE(L21:P21)</f>
-        <v>74.192000000000007</v>
+        <v>74.108000000000004</v>
       </c>
       <c r="R21">
         <f>STDEV(L21:P21)</f>
-        <v>5.1728203139100071</v>
+        <v>0.39518350167991773</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1335,58 +1424,58 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="E24">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="F24">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G24">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="H24" s="4">
         <f>(E24/255)*2-1</f>
-        <v>1</v>
+        <v>0.70196078431372544</v>
       </c>
       <c r="I24" s="4">
         <f>(F24/255)*2-1</f>
-        <v>0.32549019607843133</v>
+        <v>0.19215686274509802</v>
       </c>
       <c r="J24" s="4">
         <f>(G24/255)*2-1</f>
-        <v>0.35686274509803928</v>
+        <v>-0.23921568627450984</v>
       </c>
       <c r="L24">
-        <v>88.38</v>
+        <v>71.17</v>
       </c>
       <c r="M24">
-        <v>87.75</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="N24">
-        <v>87.42</v>
+        <v>69.88</v>
       </c>
       <c r="O24">
-        <v>87.02</v>
+        <v>79.81</v>
       </c>
       <c r="P24">
-        <v>87.17</v>
+        <v>79.86</v>
       </c>
       <c r="Q24">
         <f>AVERAGE(L24:P24)</f>
-        <v>87.548000000000002</v>
+        <v>74.192000000000007</v>
       </c>
       <c r="R24">
         <f>STDEV(L24:P24)</f>
-        <v>0.54108224883098754</v>
+        <v>5.1728203139100071</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1404,55 +1493,55 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="F27">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G27">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4">
         <f>(E27/255)*2-1</f>
-        <v>0.28627450980392166</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4">
         <f>(F27/255)*2-1</f>
-        <v>0.4274509803921569</v>
+        <v>0.32549019607843133</v>
       </c>
       <c r="J27" s="4">
         <f>(G27/255)*2-1</f>
-        <v>0.70196078431372544</v>
+        <v>0.35686274509803928</v>
       </c>
       <c r="L27">
-        <v>81.81</v>
+        <v>88.38</v>
       </c>
       <c r="M27">
-        <v>81.02</v>
+        <v>87.75</v>
       </c>
       <c r="N27">
-        <v>81.150000000000006</v>
+        <v>87.42</v>
       </c>
       <c r="O27">
-        <v>81.150000000000006</v>
+        <v>87.02</v>
       </c>
       <c r="P27">
-        <v>81.27</v>
+        <v>87.17</v>
       </c>
       <c r="Q27">
         <f>AVERAGE(L27:P27)</f>
-        <v>81.28</v>
+        <v>87.548000000000002</v>
       </c>
       <c r="R27">
         <f>STDEV(L27:P27)</f>
-        <v>0.30919249667480675</v>
+        <v>0.54108224883098754</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1467,89 +1556,166 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="16"/>
       <c r="E30">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F30">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="G30">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="H30" s="4">
         <f>(E30/255)*2-1</f>
-        <v>3.9215686274509665E-3</v>
+        <v>0.28627450980392166</v>
       </c>
       <c r="I30" s="4">
         <f>(F30/255)*2-1</f>
-        <v>3.9215686274509665E-3</v>
+        <v>0.4274509803921569</v>
       </c>
       <c r="J30" s="4">
         <f>(G30/255)*2-1</f>
-        <v>3.9215686274509665E-3</v>
+        <v>0.70196078431372544</v>
       </c>
       <c r="L30">
-        <v>34.24</v>
+        <v>81.81</v>
       </c>
       <c r="M30">
-        <v>34.4</v>
+        <v>81.02</v>
       </c>
       <c r="N30">
-        <v>34.380000000000003</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="O30">
-        <v>34.22</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="P30">
-        <v>34.450000000000003</v>
+        <v>81.27</v>
       </c>
       <c r="Q30">
         <f>AVERAGE(L30:P30)</f>
-        <v>34.338000000000001</v>
+        <v>81.28</v>
       </c>
       <c r="R30">
         <f>STDEV(L30:P30)</f>
+        <v>0.30919249667480675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33">
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>128</v>
+      </c>
+      <c r="G33">
+        <v>128</v>
+      </c>
+      <c r="H33" s="4">
+        <f>(E33/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="I33" s="4">
+        <f>(F33/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="J33" s="4">
+        <f>(G33/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="L33">
+        <v>34.24</v>
+      </c>
+      <c r="M33">
+        <v>34.4</v>
+      </c>
+      <c r="N33">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="O33">
+        <v>34.22</v>
+      </c>
+      <c r="P33">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="Q33">
+        <f>AVERAGE(L33:P33)</f>
+        <v>34.338000000000001</v>
+      </c>
+      <c r="R33">
+        <f>STDEV(L33:P33)</f>
         <v>0.10207840124139943</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>40</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
         <v>41</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374B89B4-B082-4A9B-9F15-4343770576BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079238DD-16AF-4F97-B0B6-84630C2EC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>COLOR</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Psychopy Task</t>
+  </si>
+  <si>
+    <t>Redone</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +534,13 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +872,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51A41A-0CAA-46B9-935E-BA243447640B}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,245 +1876,585 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="41" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6">
+        <v>190</v>
+      </c>
+      <c r="G6">
+        <v>190</v>
+      </c>
+      <c r="H6" s="26">
+        <v>190</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I7" si="3">(F6/255)*2-1</f>
+        <v>0.49019607843137258</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:J7" si="4">(G6/255)*2-1</f>
+        <v>0.49019607843137258</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" ref="K6:K7" si="5">(H6/255)*2-1</f>
+        <v>0.49019607843137258</v>
+      </c>
+      <c r="L6" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="M6">
+        <v>102</v>
+      </c>
+      <c r="N6">
+        <v>100.5</v>
+      </c>
+      <c r="O6">
+        <v>101.5</v>
+      </c>
+      <c r="P6">
+        <v>99.57</v>
+      </c>
+      <c r="Q6">
+        <v>100.2</v>
+      </c>
+      <c r="R6">
+        <v>100.4</v>
+      </c>
+      <c r="S6">
+        <v>101</v>
+      </c>
+      <c r="T6">
+        <v>100.1</v>
+      </c>
+      <c r="U6">
+        <v>100.3</v>
+      </c>
+      <c r="V6">
+        <f>AVERAGE(L6:U6)</f>
+        <v>101.137</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>193</v>
+      </c>
+      <c r="G7">
+        <v>193</v>
+      </c>
+      <c r="H7" s="26">
+        <v>193</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="5"/>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="L7" s="2">
+        <v>103.9</v>
+      </c>
+      <c r="M7">
+        <v>101.9</v>
+      </c>
+      <c r="N7">
+        <v>100.8</v>
+      </c>
+      <c r="O7">
+        <v>99.92</v>
+      </c>
+      <c r="P7">
+        <v>99.39</v>
+      </c>
+      <c r="Q7">
+        <v>97.66</v>
+      </c>
+      <c r="R7">
+        <v>98.18</v>
+      </c>
+      <c r="S7">
+        <v>97.2</v>
+      </c>
+      <c r="T7">
+        <v>96.98</v>
+      </c>
+      <c r="U7">
+        <v>96.9</v>
+      </c>
+      <c r="V7">
+        <f>AVERAGE(L7:U7)</f>
+        <v>99.283000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="29">
         <v>194</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G8" s="29">
         <v>194</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H8" s="43">
         <v>194</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="I8" s="52">
+        <f t="shared" ref="I8" si="6">(F8/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="J8" s="45">
+        <f t="shared" ref="J8" si="7">(G8/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="K8" s="46">
+        <f t="shared" ref="K8" si="8">(H8/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="L8" s="53">
+        <v>103.1</v>
+      </c>
+      <c r="M8" s="54">
+        <v>103.3</v>
+      </c>
+      <c r="N8" s="54">
+        <v>103.3</v>
+      </c>
+      <c r="O8" s="54">
+        <v>103.9</v>
+      </c>
+      <c r="P8" s="54">
+        <v>103.6</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>103.2</v>
+      </c>
+      <c r="R8" s="54">
+        <v>103.4</v>
+      </c>
+      <c r="S8" s="54">
+        <v>103.1</v>
+      </c>
+      <c r="T8" s="54">
+        <v>103.2</v>
+      </c>
+      <c r="U8" s="54">
+        <v>102.7</v>
+      </c>
+      <c r="V8" s="29">
+        <f>AVERAGE(L8:U8)</f>
+        <v>103.28000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="19" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>117</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>207</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H9" s="26">
         <v>253</v>
       </c>
-      <c r="I7" s="4">
-        <f>(F7/255)*2-1</f>
+      <c r="I9" s="4">
+        <f>(F9/255)*2-1</f>
         <v>-8.2352941176470629E-2</v>
       </c>
-      <c r="J7" s="4">
-        <f>(G7/255)*2-1</f>
+      <c r="J9" s="4">
+        <f>(G9/255)*2-1</f>
         <v>0.62352941176470589</v>
       </c>
-      <c r="K7" s="33">
-        <f>(H7/255)*2-1</f>
+      <c r="K9" s="33">
+        <f>(H9/255)*2-1</f>
         <v>0.98431372549019613</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L9" s="24">
         <v>1</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M9" s="24">
         <v>2</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N9" s="24">
         <v>3</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O9" s="24">
         <v>4</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P9" s="24">
         <v>5</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q9" s="24">
         <v>6</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R9" s="24">
         <v>7</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S9" s="24">
         <v>8</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T9" s="24">
         <v>9</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U9" s="24">
         <v>10</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="49"/>
-      <c r="E8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>119</v>
-      </c>
-      <c r="G8">
-        <v>209</v>
-      </c>
-      <c r="H8" s="26">
-        <v>255</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:I9" si="3">(F8/255)*2-1</f>
-        <v>-6.6666666666666652E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:J9" si="4">(G8/255)*2-1</f>
-        <v>0.63921568627450975</v>
-      </c>
-      <c r="K8" s="33">
-        <f t="shared" ref="K8:K9" si="5">(H8/255)*2-1</f>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>112</v>
-      </c>
-      <c r="M8">
-        <v>108</v>
-      </c>
-      <c r="N8">
-        <v>108</v>
-      </c>
-      <c r="O8">
-        <v>108</v>
-      </c>
-      <c r="P8">
-        <v>106</v>
-      </c>
-      <c r="Q8">
-        <v>106</v>
-      </c>
-      <c r="R8">
-        <v>107</v>
-      </c>
-      <c r="S8">
-        <v>107</v>
-      </c>
-      <c r="T8">
-        <v>109</v>
-      </c>
-      <c r="U8">
-        <v>109</v>
-      </c>
-      <c r="V8">
-        <f>AVERAGE(L8:U8)</f>
-        <v>108</v>
-      </c>
-      <c r="W8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>118</v>
-      </c>
-      <c r="G9">
-        <v>208</v>
-      </c>
-      <c r="H9" s="26">
-        <v>254</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>-7.4509803921568585E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63137254901960782</v>
-      </c>
-      <c r="K9" s="33">
-        <f t="shared" si="5"/>
-        <v>0.99215686274509807</v>
-      </c>
-      <c r="L9">
-        <v>111.7</v>
-      </c>
-      <c r="M9">
-        <v>105.7</v>
-      </c>
-      <c r="N9">
-        <v>104.1</v>
-      </c>
-      <c r="O9">
-        <v>102.7</v>
-      </c>
-      <c r="P9">
-        <v>103.8</v>
-      </c>
-      <c r="Q9">
-        <v>102.7</v>
-      </c>
-      <c r="R9">
-        <v>102.5</v>
-      </c>
-      <c r="S9">
-        <v>102.3</v>
-      </c>
-      <c r="T9">
-        <v>102</v>
-      </c>
-      <c r="U9">
-        <v>102.2</v>
-      </c>
-      <c r="V9">
-        <f>AVERAGE(L9:U9)</f>
-        <v>103.97</v>
-      </c>
-    </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D10" s="51"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F10">
+        <v>119</v>
+      </c>
+      <c r="G10">
+        <v>209</v>
+      </c>
+      <c r="H10" s="26">
+        <v>255</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:I12" si="9">(F10/255)*2-1</f>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J12" si="10">(G10/255)*2-1</f>
+        <v>0.63921568627450975</v>
+      </c>
+      <c r="K10" s="33">
+        <f t="shared" ref="K10:K12" si="11">(H10/255)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>112</v>
+      </c>
+      <c r="M10">
+        <v>108</v>
+      </c>
+      <c r="N10">
+        <v>108</v>
+      </c>
+      <c r="O10">
+        <v>108</v>
+      </c>
+      <c r="P10">
+        <v>106</v>
+      </c>
+      <c r="Q10">
+        <v>106</v>
+      </c>
+      <c r="R10">
+        <v>107</v>
+      </c>
+      <c r="S10">
+        <v>107</v>
+      </c>
+      <c r="T10">
+        <v>109</v>
+      </c>
+      <c r="U10">
+        <v>109</v>
+      </c>
+      <c r="V10">
+        <f>AVERAGE(L10:U10)</f>
+        <v>108</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>119</v>
+      </c>
+      <c r="G11">
+        <v>209</v>
+      </c>
+      <c r="H11" s="26">
+        <v>255</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11" si="12">(F11/255)*2-1</f>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11" si="13">(G11/255)*2-1</f>
+        <v>0.63921568627450975</v>
+      </c>
+      <c r="K11" s="33">
+        <f t="shared" ref="K11" si="14">(H11/255)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>102.6</v>
+      </c>
+      <c r="M11">
+        <v>103</v>
+      </c>
+      <c r="N11">
+        <v>103.8</v>
+      </c>
+      <c r="O11">
+        <v>104.3</v>
+      </c>
+      <c r="P11">
+        <v>104.4</v>
+      </c>
+      <c r="Q11">
+        <v>104.1</v>
+      </c>
+      <c r="R11">
+        <v>104.3</v>
+      </c>
+      <c r="S11">
+        <v>101.3</v>
+      </c>
+      <c r="T11">
+        <v>101.7</v>
+      </c>
+      <c r="U11">
+        <v>102.1</v>
+      </c>
+      <c r="V11">
+        <f>AVERAGE(L11:U11)</f>
+        <v>103.16</v>
+      </c>
+      <c r="W11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>118</v>
+      </c>
+      <c r="G12">
+        <v>208</v>
+      </c>
+      <c r="H12" s="26">
+        <v>254</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="9"/>
+        <v>-7.4509803921568585E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="10"/>
+        <v>0.63137254901960782</v>
+      </c>
+      <c r="K12" s="33">
+        <f t="shared" si="11"/>
+        <v>0.99215686274509807</v>
+      </c>
+      <c r="L12">
+        <v>111.7</v>
+      </c>
+      <c r="M12">
+        <v>105.7</v>
+      </c>
+      <c r="N12">
+        <v>104.1</v>
+      </c>
+      <c r="O12">
+        <v>102.7</v>
+      </c>
+      <c r="P12">
+        <v>103.8</v>
+      </c>
+      <c r="Q12">
+        <v>102.7</v>
+      </c>
+      <c r="R12">
+        <v>102.5</v>
+      </c>
+      <c r="S12">
+        <v>102.3</v>
+      </c>
+      <c r="T12">
+        <v>102</v>
+      </c>
+      <c r="U12">
+        <v>102.2</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGE(L12:U12)</f>
+        <v>103.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" s="51"/>
+      <c r="E13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
         <v>115</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>205</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H13" s="26">
         <v>251</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E12" s="20"/>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:I14" si="15">(F13/255)*2-1</f>
+        <v>-9.8039215686274495E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13:J14" si="16">(G13/255)*2-1</f>
+        <v>0.60784313725490202</v>
+      </c>
+      <c r="K13" s="33">
+        <f t="shared" ref="K13:K14" si="17">(H13/255)*2-1</f>
+        <v>0.96862745098039205</v>
+      </c>
+      <c r="L13">
+        <v>98.64</v>
+      </c>
+      <c r="M13">
+        <v>98.26</v>
+      </c>
+      <c r="N13">
+        <v>97</v>
+      </c>
+      <c r="O13">
+        <v>97.6</v>
+      </c>
+      <c r="P13">
+        <v>97.02</v>
+      </c>
+      <c r="Q13">
+        <v>96.77</v>
+      </c>
+      <c r="R13">
+        <v>96.55</v>
+      </c>
+      <c r="S13">
+        <v>96.8</v>
+      </c>
+      <c r="T13">
+        <v>96.57</v>
+      </c>
+      <c r="U13">
+        <v>96.8</v>
+      </c>
+      <c r="V13">
+        <f>AVERAGE(L13:U13)</f>
+        <v>97.200999999999979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>206</v>
+      </c>
+      <c r="H14" s="26">
+        <v>252</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="15"/>
+        <v>-9.0196078431372562E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="16"/>
+        <v>0.61568627450980395</v>
+      </c>
+      <c r="K14" s="33">
+        <f t="shared" si="17"/>
+        <v>0.9764705882352942</v>
+      </c>
+      <c r="L14">
+        <v>101.9</v>
+      </c>
+      <c r="M14">
+        <v>101.5</v>
+      </c>
+      <c r="N14">
+        <v>102.7</v>
+      </c>
+      <c r="O14">
+        <v>103.1</v>
+      </c>
+      <c r="P14">
+        <v>102.8</v>
+      </c>
+      <c r="Q14">
+        <v>102.4</v>
+      </c>
+      <c r="R14">
+        <v>102.4</v>
+      </c>
+      <c r="S14">
+        <v>102.5</v>
+      </c>
+      <c r="T14">
+        <v>102.2</v>
+      </c>
+      <c r="U14">
+        <v>102</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(L14:U14)</f>
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079238DD-16AF-4F97-B0B6-84630C2EC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268D467-A67D-485F-801A-7636F28C1828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
   <sheets>
     <sheet name="OG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>COLOR</t>
   </si>
@@ -217,6 +217,36 @@
   </si>
   <si>
     <t>Redone</t>
+  </si>
+  <si>
+    <t>Konica Minolta</t>
+  </si>
+  <si>
+    <t>Luminance Meter LS-100</t>
+  </si>
+  <si>
+    <t>Distance Scale</t>
+  </si>
+  <si>
+    <t>A quarter of the way of 1.2m and 4ft</t>
+  </si>
+  <si>
+    <t>Preset</t>
+  </si>
+  <si>
+    <t>Minolta Standard</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Absolute Luminance Measurement</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
 </sst>
 </file>
@@ -461,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B312E3A-0048-4570-B544-6BF802346B2B}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1623,53 @@
         <v>35</v>
       </c>
     </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>20334010</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H1:J1"/>
@@ -1605,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51A41A-0CAA-46B9-935E-BA243447640B}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1703,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1724,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
@@ -1747,8 +1825,11 @@
       <c r="V3" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D4" s="39"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
@@ -1808,8 +1889,12 @@
         <f>AVERAGE(L4:U4)</f>
         <v>100.69200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="16">
+        <f>STDEV(L4:U4)</f>
+        <v>0.60642486023505859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
         <v>54</v>
       </c>
@@ -1872,11 +1957,15 @@
         <f>AVERAGE(L5:U5)</f>
         <v>102.2</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="16">
+        <f t="shared" ref="W5:W14" si="3">STDEV(L5:U5)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="X5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>59</v>
       </c>
@@ -1894,15 +1983,15 @@
         <v>190</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:I7" si="3">(F6/255)*2-1</f>
+        <f t="shared" ref="I6:I7" si="4">(F6/255)*2-1</f>
         <v>0.49019607843137258</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ref="J6:J7" si="4">(G6/255)*2-1</f>
+        <f t="shared" ref="J6:J7" si="5">(G6/255)*2-1</f>
         <v>0.49019607843137258</v>
       </c>
       <c r="K6" s="33">
-        <f t="shared" ref="K6:K7" si="5">(H6/255)*2-1</f>
+        <f t="shared" ref="K6:K7" si="6">(H6/255)*2-1</f>
         <v>0.49019607843137258</v>
       </c>
       <c r="L6" s="2">
@@ -1939,11 +2028,15 @@
         <f>AVERAGE(L6:U6)</f>
         <v>101.137</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7856592308973422</v>
+      </c>
+      <c r="X6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C7" s="25"/>
       <c r="D7" s="47"/>
       <c r="E7" s="18" t="s">
@@ -1959,15 +2052,15 @@
         <v>193</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.51372549019607838</v>
-      </c>
-      <c r="J7" s="4">
         <f t="shared" si="4"/>
         <v>0.51372549019607838</v>
       </c>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.51372549019607838</v>
+      </c>
       <c r="K7" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51372549019607838</v>
       </c>
       <c r="L7" s="2">
@@ -2004,8 +2097,12 @@
         <f>AVERAGE(L7:U7)</f>
         <v>99.283000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="16">
+        <f t="shared" si="3"/>
+        <v>2.358342402809416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="D8" s="48"/>
@@ -2022,15 +2119,15 @@
         <v>194</v>
       </c>
       <c r="I8" s="52">
-        <f t="shared" ref="I8" si="6">(F8/255)*2-1</f>
+        <f t="shared" ref="I8" si="7">(F8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
       <c r="J8" s="45">
-        <f t="shared" ref="J8" si="7">(G8/255)*2-1</f>
+        <f t="shared" ref="J8" si="8">(G8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
       <c r="K8" s="46">
-        <f t="shared" ref="K8" si="8">(H8/255)*2-1</f>
+        <f t="shared" ref="K8" si="9">(H8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
       <c r="L8" s="53">
@@ -2067,8 +2164,12 @@
         <f>AVERAGE(L8:U8)</f>
         <v>103.28000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="55">
+        <f t="shared" si="3"/>
+        <v>0.31902629637347807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -2136,8 +2237,12 @@
       <c r="V9" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="16">
+        <f t="shared" si="3"/>
+        <v>3.0276503540974917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D10" s="49"/>
       <c r="E10" s="19" t="s">
         <v>51</v>
@@ -2152,15 +2257,15 @@
         <v>255</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" ref="I10:I12" si="9">(F10/255)*2-1</f>
+        <f t="shared" ref="I10:I12" si="10">(F10/255)*2-1</f>
         <v>-6.6666666666666652E-2</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10:J12" si="10">(G10/255)*2-1</f>
+        <f t="shared" ref="J10:J12" si="11">(G10/255)*2-1</f>
         <v>0.63921568627450975</v>
       </c>
       <c r="K10" s="33">
-        <f t="shared" ref="K10:K12" si="11">(H10/255)*2-1</f>
+        <f t="shared" ref="K10:K12" si="12">(H10/255)*2-1</f>
         <v>1</v>
       </c>
       <c r="L10">
@@ -2197,11 +2302,15 @@
         <f>AVERAGE(L10:U10)</f>
         <v>108</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7638342073763937</v>
+      </c>
+      <c r="X10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -2219,15 +2328,15 @@
         <v>255</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" ref="I11" si="12">(F11/255)*2-1</f>
+        <f t="shared" ref="I11" si="13">(F11/255)*2-1</f>
         <v>-6.6666666666666652E-2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" ref="J11" si="13">(G11/255)*2-1</f>
+        <f t="shared" ref="J11" si="14">(G11/255)*2-1</f>
         <v>0.63921568627450975</v>
       </c>
       <c r="K11" s="33">
-        <f t="shared" ref="K11" si="14">(H11/255)*2-1</f>
+        <f t="shared" ref="K11" si="15">(H11/255)*2-1</f>
         <v>1</v>
       </c>
       <c r="L11">
@@ -2264,11 +2373,15 @@
         <f>AVERAGE(L11:U11)</f>
         <v>103.16</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="16">
+        <f t="shared" si="3"/>
+        <v>1.1777568132306058</v>
+      </c>
+      <c r="X11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C12" s="25" t="s">
         <v>54</v>
       </c>
@@ -2286,15 +2399,15 @@
         <v>254</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.4509803921568585E-2</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.63137254901960782</v>
       </c>
       <c r="K12" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99215686274509807</v>
       </c>
       <c r="L12">
@@ -2331,8 +2444,12 @@
         <f>AVERAGE(L12:U12)</f>
         <v>103.97</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9435617125441014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13" s="51"/>
       <c r="E13" s="19" t="s">
         <v>51</v>
@@ -2347,15 +2464,15 @@
         <v>251</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ref="I13:I14" si="15">(F13/255)*2-1</f>
+        <f t="shared" ref="I13:I14" si="16">(F13/255)*2-1</f>
         <v>-9.8039215686274495E-2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13:J14" si="16">(G13/255)*2-1</f>
+        <f t="shared" ref="J13:J14" si="17">(G13/255)*2-1</f>
         <v>0.60784313725490202</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" ref="K13:K14" si="17">(H13/255)*2-1</f>
+        <f t="shared" ref="K13:K14" si="18">(H13/255)*2-1</f>
         <v>0.96862745098039205</v>
       </c>
       <c r="L13">
@@ -2392,8 +2509,12 @@
         <f>AVERAGE(L13:U13)</f>
         <v>97.200999999999979</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="16">
+        <f t="shared" si="3"/>
+        <v>0.72678057211238345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E14" s="19" t="s">
         <v>51</v>
       </c>
@@ -2407,15 +2528,15 @@
         <v>252</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-9.0196078431372562E-2</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.61568627450980395</v>
       </c>
       <c r="K14" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9764705882352942</v>
       </c>
       <c r="L14">
@@ -2452,8 +2573,12 @@
         <f>AVERAGE(L14:U14)</f>
         <v>102.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="16">
+        <f t="shared" si="3"/>
+        <v>0.46963342678684405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E15" s="20"/>
     </row>
   </sheetData>

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268D467-A67D-485F-801A-7636F28C1828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF52E5-CBB8-43E1-AAC3-16B594B7CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
   <sheets>
     <sheet name="OG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>COLOR</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>What us the luminance from different angles?</t>
+  </si>
+  <si>
+    <t>Effect of angle of screen? Effect of bouncing light?</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -902,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B312E3A-0048-4570-B544-6BF802346B2B}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1585,9 @@
       <c r="K17" t="s">
         <v>44</v>
       </c>
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
       <c r="V17" t="s">
         <v>32</v>
       </c>
@@ -1586,6 +1598,9 @@
       </c>
       <c r="K18" t="s">
         <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.25">
@@ -1685,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51A41A-0CAA-46B9-935E-BA243447640B}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,9 +1910,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="C5" s="25"/>
       <c r="D5" s="47"/>
       <c r="E5" s="18" t="s">
         <v>51</v>
@@ -1966,9 +1979,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="C6" s="25"/>
       <c r="D6" s="47"/>
       <c r="E6" s="18" t="s">
         <v>51</v>
@@ -2105,6 +2116,9 @@
     <row r="8" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
+      <c r="C8" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="D8" s="48"/>
       <c r="E8" s="41" t="s">
         <v>51</v>
@@ -2312,7 +2326,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="19" t="s">
@@ -2382,9 +2396,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="C12" s="25"/>
       <c r="D12" s="50"/>
       <c r="E12" s="19" t="s">
         <v>51</v>
@@ -2515,6 +2527,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="19" t="s">
         <v>51</v>
       </c>

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF52E5-CBB8-43E1-AAC3-16B594B7CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E5267-FF9F-4AB1-924E-B41FB2B10360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
@@ -262,9 +262,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -500,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,6 +582,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51A41A-0CAA-46B9-935E-BA243447640B}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1720,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
@@ -1739,7 +1741,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="39"/>
       <c r="E4" s="21" t="s">
         <v>1</v>
@@ -1909,7 +1911,7 @@
         <v>0.60642486023505859</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="25"/>
       <c r="D5" s="47"/>
       <c r="E5" s="18" t="s">
@@ -1978,7 +1980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="25"/>
       <c r="D6" s="47"/>
       <c r="E6" s="18" t="s">
@@ -2047,7 +2049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="25"/>
       <c r="D7" s="47"/>
       <c r="E7" s="18" t="s">
@@ -2113,7 +2115,7 @@
         <v>2.358342402809416</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="29" t="s">
@@ -2183,7 +2185,7 @@
         <v>0.31902629637347807</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2258,7 @@
         <v>3.0276503540974917</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="49"/>
       <c r="E10" s="19" t="s">
         <v>51</v>
@@ -2324,7 +2326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -2395,7 +2397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
       <c r="D12" s="50"/>
       <c r="E12" s="19" t="s">
@@ -2461,7 +2463,7 @@
         <v>2.9435617125441014</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="51"/>
       <c r="E13" s="19" t="s">
         <v>51</v>
@@ -2526,7 +2528,7 @@
         <v>0.72678057211238345</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -2593,8 +2595,9 @@
         <v>0.46963342678684405</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E15" s="20"/>
+      <c r="Y15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E5267-FF9F-4AB1-924E-B41FB2B10360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEC5402-B08D-4489-86C2-ED560C34019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>COLOR</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Psychopy Scale</t>
-  </si>
-  <si>
-    <t>Final?</t>
   </si>
   <si>
     <t>Green = Chosen colors</t>
@@ -932,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>0</v>
@@ -963,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>36</v>
@@ -1567,12 +1564,12 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1588,7 +1585,7 @@
         <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V17" t="s">
         <v>32</v>
@@ -1602,7 +1599,7 @@
         <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.25">
@@ -1642,12 +1639,12 @@
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.25">
@@ -1657,34 +1654,34 @@
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
         <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
         <v>68</v>
-      </c>
-      <c r="F31" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1700,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="30" t="s">
@@ -2046,7 +2043,7 @@
         <v>1.7856592308973422</v>
       </c>
       <c r="X6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -2119,7 +2116,7 @@
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="41" t="s">
@@ -2328,7 +2325,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="19" t="s">
@@ -2394,7 +2391,7 @@
         <v>1.1777568132306058</v>
       </c>
       <c r="X11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2529,9 +2526,6 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="19" t="s">
         <v>51</v>
       </c>

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEC5402-B08D-4489-86C2-ED560C34019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25268EFF-5530-425E-82F3-0F5F653CA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CGE/CGE - Colors.xlsx
+++ b/CGE/CGE - Colors.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvonm\Documents\GitHub\cge\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25268EFF-5530-425E-82F3-0F5F653CA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39248E-0D60-48DD-85F5-89582EAE642D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{D0337CB7-C2FB-4A92-809D-DC8F4F627208}"/>
   </bookViews>
   <sheets>
     <sheet name="OG" sheetId="1" r:id="rId1"/>
     <sheet name="Final Colors" sheetId="3" r:id="rId2"/>
+    <sheet name="New.11.5.23" sheetId="4" r:id="rId3"/>
+    <sheet name="FinNew" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>COLOR</t>
   </si>
@@ -253,6 +255,78 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>ogFinal</t>
+  </si>
+  <si>
+    <t>Room Lights Off</t>
+  </si>
+  <si>
+    <t>Lamps/WhiteNoise/Host On</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>Possible Pairs</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>b2.1</t>
+  </si>
+  <si>
+    <t>b3.1</t>
+  </si>
+  <si>
+    <t>b5.1</t>
+  </si>
+  <si>
+    <t>b7.1</t>
+  </si>
+  <si>
+    <t>~40</t>
+  </si>
+  <si>
+    <t>~50</t>
+  </si>
+  <si>
+    <t>b1.1</t>
+  </si>
+  <si>
+    <t>b3.2</t>
+  </si>
+  <si>
+    <t>b2.2</t>
   </si>
 </sst>
 </file>
@@ -262,9 +336,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +357,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,45 +601,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,14 +634,51 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,113 +1024,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="26"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="23">
         <v>1</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="23">
         <v>2</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="23">
         <v>3</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="23">
         <v>4</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="24">
         <v>5</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="25">
+      <c r="E3">
         <v>192</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3">
         <v>192</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="20">
         <v>192</v>
       </c>
-      <c r="H3" s="32">
-        <f>(E3/255)*2-1</f>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H12" si="0">(E3/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
-      <c r="I3" s="32">
-        <f>(F3/255)*2-1</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I12" si="1">(F3/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
-      <c r="J3" s="33">
-        <f>(G3/255)*2-1</f>
+      <c r="J3" s="25">
+        <f t="shared" ref="J3:J12" si="2">(G3/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
       <c r="K3" s="2">
@@ -1046,48 +1145,48 @@
       <c r="N3">
         <v>105.8</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="20">
         <v>104.9</v>
       </c>
       <c r="P3" s="16">
-        <f>AVERAGE(K3:O3)</f>
+        <f t="shared" ref="P3:P12" si="3">AVERAGE(K3:O3)</f>
         <v>105.02000000000001</v>
       </c>
       <c r="Q3" s="16">
-        <f>STDEV(K3:O3)</f>
+        <f t="shared" ref="Q3:Q12" si="4">STDEV(K3:O3)</f>
         <v>1.3590437814875562</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="25">
+      <c r="E4">
         <v>62</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4">
         <v>230</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="20">
         <v>92</v>
       </c>
-      <c r="H4" s="32">
-        <f>(E4/255)*2-1</f>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>-0.51372549019607838</v>
       </c>
-      <c r="I4" s="32">
-        <f>(F4/255)*2-1</f>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
         <v>0.80392156862745101</v>
       </c>
-      <c r="J4" s="33">
-        <f>(G4/255)*2-1</f>
+      <c r="J4" s="25">
+        <f t="shared" si="2"/>
         <v>-0.27843137254901962</v>
       </c>
       <c r="K4">
@@ -1102,48 +1201,48 @@
       <c r="N4">
         <v>102.4</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="20">
         <v>102.9</v>
       </c>
       <c r="P4" s="16">
-        <f>AVERAGE(K4:O4)</f>
+        <f t="shared" si="3"/>
         <v>103.02000000000001</v>
       </c>
       <c r="Q4" s="16">
-        <f>STDEV(K4:O4)</f>
+        <f t="shared" si="4"/>
         <v>0.54497706373754473</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="25">
+      <c r="E5">
         <v>246</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5">
         <v>173</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="20">
         <v>129</v>
       </c>
-      <c r="H5" s="32">
-        <f>(E5/255)*2-1</f>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
         <v>0.92941176470588238</v>
       </c>
-      <c r="I5" s="32">
-        <f>(F5/255)*2-1</f>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
         <v>0.35686274509803928</v>
       </c>
-      <c r="J5" s="33">
-        <f>(G5/255)*2-1</f>
+      <c r="J5" s="25">
+        <f t="shared" si="2"/>
         <v>1.1764705882352899E-2</v>
       </c>
       <c r="K5">
@@ -1158,48 +1257,48 @@
       <c r="N5">
         <v>92.01</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="20">
         <v>91.08</v>
       </c>
       <c r="P5" s="16">
-        <f>AVERAGE(K5:O5)</f>
+        <f t="shared" si="3"/>
         <v>92.817999999999998</v>
       </c>
       <c r="Q5" s="16">
-        <f>STDEV(K5:O5)</f>
+        <f t="shared" si="4"/>
         <v>1.2268740766680168</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="25">
+      <c r="E6">
         <v>117</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6">
         <v>207</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>253</v>
       </c>
-      <c r="H6" s="32">
-        <f>(E6/255)*2-1</f>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
         <v>-8.2352941176470629E-2</v>
       </c>
-      <c r="I6" s="32">
-        <f>(F6/255)*2-1</f>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
         <v>0.62352941176470589</v>
       </c>
-      <c r="J6" s="33">
-        <f>(G6/255)*2-1</f>
+      <c r="J6" s="25">
+        <f t="shared" si="2"/>
         <v>0.98431372549019613</v>
       </c>
       <c r="K6">
@@ -1214,48 +1313,48 @@
       <c r="N6">
         <v>97.66</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="20">
         <v>96.62</v>
       </c>
       <c r="P6" s="16">
-        <f>AVERAGE(K6:O6)</f>
+        <f t="shared" si="3"/>
         <v>98.301999999999992</v>
       </c>
       <c r="Q6" s="16">
-        <f>STDEV(K6:O6)</f>
+        <f t="shared" si="4"/>
         <v>1.1787366118009555</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="25">
+      <c r="E7">
         <v>166</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7">
         <v>160</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="20">
         <v>198</v>
       </c>
-      <c r="H7" s="32">
-        <f>(E7/255)*2-1</f>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
         <v>0.30196078431372553</v>
       </c>
-      <c r="I7" s="32">
-        <f>(F7/255)*2-1</f>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
         <v>0.25490196078431371</v>
       </c>
-      <c r="J7" s="33">
-        <f>(G7/255)*2-1</f>
+      <c r="J7" s="25">
+        <f t="shared" si="2"/>
         <v>0.55294117647058827</v>
       </c>
       <c r="K7">
@@ -1270,48 +1369,48 @@
       <c r="N7">
         <v>65.069999999999993</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="20">
         <v>64.92</v>
       </c>
       <c r="P7" s="16">
-        <f>AVERAGE(K7:O7)</f>
+        <f t="shared" si="3"/>
         <v>65.433999999999997</v>
       </c>
       <c r="Q7" s="16">
-        <f>STDEV(K7:O7)</f>
+        <f t="shared" si="4"/>
         <v>0.57155927076725743</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="25">
+      <c r="E8">
         <v>188</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8">
         <v>175</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="20">
         <v>81</v>
       </c>
-      <c r="H8" s="32">
-        <f>(E8/255)*2-1</f>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
         <v>0.47450980392156872</v>
       </c>
-      <c r="I8" s="32">
-        <f>(F8/255)*2-1</f>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
         <v>0.37254901960784315</v>
       </c>
-      <c r="J8" s="33">
-        <f>(G8/255)*2-1</f>
+      <c r="J8" s="25">
+        <f t="shared" si="2"/>
         <v>-0.36470588235294121</v>
       </c>
       <c r="K8">
@@ -1326,48 +1425,48 @@
       <c r="N8">
         <v>73.94</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="20">
         <v>74.7</v>
       </c>
       <c r="P8" s="16">
-        <f>AVERAGE(K8:O8)</f>
+        <f t="shared" si="3"/>
         <v>74.108000000000004</v>
       </c>
       <c r="Q8" s="16">
-        <f>STDEV(K8:O8)</f>
+        <f t="shared" si="4"/>
         <v>0.39518350167991773</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="25">
+      <c r="E9">
         <v>217</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9">
         <v>152</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="20">
         <v>97</v>
       </c>
-      <c r="H9" s="32">
-        <f>(E9/255)*2-1</f>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
         <v>0.70196078431372544</v>
       </c>
-      <c r="I9" s="32">
-        <f>(F9/255)*2-1</f>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
         <v>0.19215686274509802</v>
       </c>
-      <c r="J9" s="33">
-        <f>(G9/255)*2-1</f>
+      <c r="J9" s="25">
+        <f t="shared" si="2"/>
         <v>-0.23921568627450984</v>
       </c>
       <c r="K9">
@@ -1382,48 +1481,48 @@
       <c r="N9">
         <v>79.81</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="20">
         <v>79.86</v>
       </c>
       <c r="P9" s="16">
-        <f>AVERAGE(K9:O9)</f>
+        <f t="shared" si="3"/>
         <v>74.192000000000007</v>
       </c>
       <c r="Q9" s="16">
-        <f>STDEV(K9:O9)</f>
+        <f t="shared" si="4"/>
         <v>5.1728203139100071</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="25">
+      <c r="E10">
         <v>255</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10">
         <v>169</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="20">
         <v>173</v>
       </c>
-      <c r="H10" s="32">
-        <f>(E10/255)*2-1</f>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="32">
-        <f>(F10/255)*2-1</f>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
         <v>0.32549019607843133</v>
       </c>
-      <c r="J10" s="33">
-        <f>(G10/255)*2-1</f>
+      <c r="J10" s="25">
+        <f t="shared" si="2"/>
         <v>0.35686274509803928</v>
       </c>
       <c r="K10">
@@ -1438,48 +1537,48 @@
       <c r="N10">
         <v>87.02</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="20">
         <v>87.17</v>
       </c>
       <c r="P10" s="16">
-        <f>AVERAGE(K10:O10)</f>
+        <f t="shared" si="3"/>
         <v>87.548000000000002</v>
       </c>
       <c r="Q10" s="16">
-        <f>STDEV(K10:O10)</f>
+        <f t="shared" si="4"/>
         <v>0.54108224883098754</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="25">
+      <c r="E11">
         <v>164</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11">
         <v>182</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="20">
         <v>217</v>
       </c>
-      <c r="H11" s="32">
-        <f>(E11/255)*2-1</f>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
         <v>0.28627450980392166</v>
       </c>
-      <c r="I11" s="32">
-        <f>(F11/255)*2-1</f>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
         <v>0.4274509803921569</v>
       </c>
-      <c r="J11" s="33">
-        <f>(G11/255)*2-1</f>
+      <c r="J11" s="25">
+        <f t="shared" si="2"/>
         <v>0.70196078431372544</v>
       </c>
       <c r="K11">
@@ -1494,48 +1593,48 @@
       <c r="N11">
         <v>81.150000000000006</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="20">
         <v>81.27</v>
       </c>
       <c r="P11" s="16">
-        <f>AVERAGE(K11:O11)</f>
+        <f t="shared" si="3"/>
         <v>81.28</v>
       </c>
       <c r="Q11" s="16">
-        <f>STDEV(K11:O11)</f>
+        <f t="shared" si="4"/>
         <v>0.30919249667480675</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="25">
+      <c r="E12">
         <v>128</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12">
         <v>128</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>128</v>
       </c>
-      <c r="H12" s="32">
-        <f>(E12/255)*2-1</f>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
         <v>3.9215686274509665E-3</v>
       </c>
-      <c r="I12" s="32">
-        <f>(F12/255)*2-1</f>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
         <v>3.9215686274509665E-3</v>
       </c>
-      <c r="J12" s="33">
-        <f>(G12/255)*2-1</f>
+      <c r="J12" s="25">
+        <f t="shared" si="2"/>
         <v>3.9215686274509665E-3</v>
       </c>
       <c r="K12">
@@ -1550,15 +1649,15 @@
       <c r="N12">
         <v>34.22</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="20">
         <v>34.450000000000003</v>
       </c>
       <c r="P12" s="16">
-        <f>AVERAGE(K12:O12)</f>
+        <f t="shared" si="3"/>
         <v>34.338000000000001</v>
       </c>
       <c r="Q12" s="16">
-        <f>STDEV(K12:O12)</f>
+        <f t="shared" si="4"/>
         <v>0.10207840124139943</v>
       </c>
     </row>
@@ -1699,90 +1798,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD51A41A-0CAA-46B9-935E-BA243447640B}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="18" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="20" customWidth="1"/>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="20" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3">
@@ -1791,7 +1889,7 @@
       <c r="G3">
         <v>192</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="20">
         <v>192</v>
       </c>
       <c r="I3" s="4">
@@ -1802,50 +1900,50 @@
         <f>(G3/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="25">
         <f>(H3/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="19">
         <v>1</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="19">
         <v>2</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="19">
         <v>3</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="19">
         <v>4</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="19">
         <v>5</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="19">
         <v>6</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="19">
         <v>7</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="19">
         <v>8</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="19">
         <v>9</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="19">
         <v>10</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D4" s="39"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4">
@@ -1854,7 +1952,7 @@
       <c r="G4">
         <v>192</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="20">
         <v>192</v>
       </c>
       <c r="I4" s="4">
@@ -1865,7 +1963,7 @@
         <f t="shared" ref="J4:J5" si="1">(G4/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="25">
         <f t="shared" ref="K4:K5" si="2">(H4/255)*2-1</f>
         <v>0.50588235294117645</v>
       </c>
@@ -1909,9 +2007,8 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="25"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5">
@@ -1920,7 +2017,7 @@
       <c r="G5">
         <v>190</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="20">
         <v>190</v>
       </c>
       <c r="I5" s="4">
@@ -1931,7 +2028,7 @@
         <f t="shared" si="1"/>
         <v>0.49019607843137258</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="25">
         <f t="shared" si="2"/>
         <v>0.49019607843137258</v>
       </c>
@@ -1978,9 +2075,8 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="25"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6">
@@ -1989,7 +2085,7 @@
       <c r="G6">
         <v>190</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="20">
         <v>190</v>
       </c>
       <c r="I6" s="4">
@@ -2000,7 +2096,7 @@
         <f t="shared" ref="J6:J7" si="5">(G6/255)*2-1</f>
         <v>0.49019607843137258</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="25">
         <f t="shared" ref="K6:K7" si="6">(H6/255)*2-1</f>
         <v>0.49019607843137258</v>
       </c>
@@ -2047,9 +2143,8 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="25"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7">
@@ -2058,7 +2153,7 @@
       <c r="G7">
         <v>193</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="20">
         <v>193</v>
       </c>
       <c r="I7" s="4">
@@ -2069,7 +2164,7 @@
         <f t="shared" si="5"/>
         <v>0.51372549019607838</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="25">
         <f t="shared" si="6"/>
         <v>0.51372549019607838</v>
       </c>
@@ -2112,88 +2207,88 @@
         <v>2.358342402809416</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="22">
         <v>194</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="22">
         <v>194</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="32">
         <v>194</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="41">
         <f t="shared" ref="I8" si="7">(F8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="34">
         <f t="shared" ref="J8" si="8">(G8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="35">
         <f t="shared" ref="K8" si="9">(H8/255)*2-1</f>
         <v>0.52156862745098032</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="42">
         <v>103.1</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="43">
         <v>103.3</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="43">
         <v>103.3</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="43">
         <v>103.9</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="43">
         <v>103.6</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="43">
         <v>103.2</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="43">
         <v>103.4</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="43">
         <v>103.1</v>
       </c>
-      <c r="T8" s="54">
+      <c r="T8" s="43">
         <v>103.2</v>
       </c>
-      <c r="U8" s="54">
+      <c r="U8" s="43">
         <v>102.7</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="22">
         <f>AVERAGE(L8:U8)</f>
         <v>103.28000000000002</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8" s="44">
         <f t="shared" si="3"/>
         <v>0.31902629637347807</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9">
@@ -2202,7 +2297,7 @@
       <c r="G9">
         <v>207</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="20">
         <v>253</v>
       </c>
       <c r="I9" s="4">
@@ -2213,41 +2308,41 @@
         <f>(G9/255)*2-1</f>
         <v>0.62352941176470589</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="25">
         <f>(H9/255)*2-1</f>
         <v>0.98431372549019613</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="19">
         <v>1</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="19">
         <v>2</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="19">
         <v>3</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="19">
         <v>4</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="19">
         <v>5</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="19">
         <v>6</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="19">
         <v>7</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="19">
         <v>8</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="19">
         <v>9</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="19">
         <v>10</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="W9" s="16">
@@ -2256,8 +2351,8 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="F10">
@@ -2266,7 +2361,7 @@
       <c r="G10">
         <v>209</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="20">
         <v>255</v>
       </c>
       <c r="I10" s="4">
@@ -2277,7 +2372,7 @@
         <f t="shared" ref="J10:J12" si="11">(G10/255)*2-1</f>
         <v>0.63921568627450975</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="25">
         <f t="shared" ref="K10:K12" si="12">(H10/255)*2-1</f>
         <v>1</v>
       </c>
@@ -2327,8 +2422,8 @@
       <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
       <c r="F11">
@@ -2337,7 +2432,7 @@
       <c r="G11">
         <v>209</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="20">
         <v>255</v>
       </c>
       <c r="I11" s="4">
@@ -2348,7 +2443,7 @@
         <f t="shared" ref="J11" si="14">(G11/255)*2-1</f>
         <v>0.63921568627450975</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="25">
         <f t="shared" ref="K11" si="15">(H11/255)*2-1</f>
         <v>1</v>
       </c>
@@ -2395,9 +2490,8 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12">
@@ -2406,7 +2500,7 @@
       <c r="G12">
         <v>208</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>254</v>
       </c>
       <c r="I12" s="4">
@@ -2417,7 +2511,7 @@
         <f t="shared" si="11"/>
         <v>0.63137254901960782</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="25">
         <f t="shared" si="12"/>
         <v>0.99215686274509807</v>
       </c>
@@ -2461,8 +2555,8 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="51"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
       <c r="F13">
@@ -2471,7 +2565,7 @@
       <c r="G13">
         <v>205</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="20">
         <v>251</v>
       </c>
       <c r="I13" s="4">
@@ -2482,7 +2576,7 @@
         <f t="shared" ref="J13:J14" si="17">(G13/255)*2-1</f>
         <v>0.60784313725490202</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="25">
         <f t="shared" ref="K13:K14" si="18">(H13/255)*2-1</f>
         <v>0.96862745098039205</v>
       </c>
@@ -2526,7 +2620,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E14" s="19" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
       <c r="F14">
@@ -2535,7 +2629,7 @@
       <c r="G14">
         <v>206</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>252</v>
       </c>
       <c r="I14" s="4">
@@ -2546,7 +2640,7 @@
         <f t="shared" si="17"/>
         <v>0.61568627450980395</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="25">
         <f t="shared" si="18"/>
         <v>0.9764705882352942</v>
       </c>
@@ -2590,8 +2684,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E15" s="20"/>
-      <c r="Y15" s="56"/>
+      <c r="Y15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2602,4 +2695,2260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42057EEE-C66B-4369-879D-33519695CE5C}">
+  <dimension ref="A1:Z33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="9.140625" style="49"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="7" max="7" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="20"/>
+    <col min="14" max="14" width="9.140625" style="20"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>192</v>
+      </c>
+      <c r="J3">
+        <v>192</v>
+      </c>
+      <c r="K3" s="20">
+        <v>192</v>
+      </c>
+      <c r="L3" s="4">
+        <f>(I3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="M3" s="4">
+        <f>(J3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="N3" s="25">
+        <f>(K3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>3</v>
+      </c>
+      <c r="R3" s="19">
+        <v>4</v>
+      </c>
+      <c r="S3" s="19">
+        <v>5</v>
+      </c>
+      <c r="T3" s="19">
+        <v>6</v>
+      </c>
+      <c r="U3" s="19">
+        <v>7</v>
+      </c>
+      <c r="V3" s="19">
+        <v>8</v>
+      </c>
+      <c r="W3" s="19">
+        <v>9</v>
+      </c>
+      <c r="X3" s="26">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F4" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="49">
+        <v>194</v>
+      </c>
+      <c r="J4" s="49">
+        <v>194</v>
+      </c>
+      <c r="K4" s="20">
+        <v>194</v>
+      </c>
+      <c r="L4" s="50">
+        <f>(I4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="M4" s="50">
+        <f>(J4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="N4" s="25">
+        <f>(K4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="O4" s="51">
+        <v>103.1</v>
+      </c>
+      <c r="P4" s="51">
+        <v>103.3</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>103.3</v>
+      </c>
+      <c r="R4" s="51">
+        <v>103.9</v>
+      </c>
+      <c r="S4" s="51">
+        <v>103.6</v>
+      </c>
+      <c r="T4" s="51">
+        <v>103.2</v>
+      </c>
+      <c r="U4" s="51">
+        <v>103.4</v>
+      </c>
+      <c r="V4" s="51">
+        <v>103.1</v>
+      </c>
+      <c r="W4" s="51">
+        <v>103.2</v>
+      </c>
+      <c r="X4" s="55">
+        <v>102.7</v>
+      </c>
+      <c r="Y4" s="49">
+        <f>AVERAGE(O4:X4)</f>
+        <v>103.28000000000002</v>
+      </c>
+      <c r="Z4" s="52">
+        <f t="shared" ref="Z4" si="0">STDEV(O4:X4)</f>
+        <v>0.31902629637347807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="H5" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="49">
+        <v>180</v>
+      </c>
+      <c r="J5" s="49">
+        <v>180</v>
+      </c>
+      <c r="K5" s="20">
+        <v>180</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" ref="L5:L13" si="1">(I5/255)*2-1</f>
+        <v>0.41176470588235303</v>
+      </c>
+      <c r="M5" s="50">
+        <f t="shared" ref="M5:M13" si="2">(J5/255)*2-1</f>
+        <v>0.41176470588235303</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" ref="N5:N13" si="3">(K5/255)*2-1</f>
+        <v>0.41176470588235303</v>
+      </c>
+      <c r="O5" s="49">
+        <v>83.27</v>
+      </c>
+      <c r="P5" s="49">
+        <v>89.29</v>
+      </c>
+      <c r="Q5">
+        <v>89.14</v>
+      </c>
+      <c r="R5">
+        <v>89.19</v>
+      </c>
+      <c r="S5">
+        <v>89.26</v>
+      </c>
+      <c r="T5">
+        <v>88.96</v>
+      </c>
+      <c r="U5">
+        <v>88.91</v>
+      </c>
+      <c r="V5">
+        <v>89.01</v>
+      </c>
+      <c r="W5">
+        <v>88.86</v>
+      </c>
+      <c r="X5" s="20">
+        <v>88.86</v>
+      </c>
+      <c r="Y5" s="49">
+        <f t="shared" ref="Y5:Y8" si="4">AVERAGE(O5:X5)</f>
+        <v>88.474999999999994</v>
+      </c>
+      <c r="Z5" s="52">
+        <f t="shared" ref="Z5:Z8" si="5">STDEV(O5:X5)</f>
+        <v>1.835848275018634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="H6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="53">
+        <v>175</v>
+      </c>
+      <c r="J6" s="53">
+        <v>175</v>
+      </c>
+      <c r="K6" s="20">
+        <v>175</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" ref="L6" si="6">(I6/255)*2-1</f>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" ref="M6" si="7">(J6/255)*2-1</f>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" ref="N6" si="8">(K6/255)*2-1</f>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="O6" s="49">
+        <v>73.47</v>
+      </c>
+      <c r="P6" s="49">
+        <v>73.08</v>
+      </c>
+      <c r="Q6">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="R6">
+        <v>72.95</v>
+      </c>
+      <c r="S6">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="T6">
+        <v>72.84</v>
+      </c>
+      <c r="U6">
+        <v>72.91</v>
+      </c>
+      <c r="V6">
+        <v>72.97</v>
+      </c>
+      <c r="W6">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="X6" s="20">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="Y6" s="49">
+        <f t="shared" ref="Y6:Y10" si="9">AVERAGE(O6:X6)</f>
+        <v>72.988000000000014</v>
+      </c>
+      <c r="Z6" s="52">
+        <f t="shared" ref="Z6:Z10" si="10">STDEV(O6:X6)</f>
+        <v>0.20557777657670614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="53">
+        <v>160</v>
+      </c>
+      <c r="J7" s="53">
+        <v>160</v>
+      </c>
+      <c r="K7" s="20">
+        <v>160</v>
+      </c>
+      <c r="L7" s="50">
+        <f t="shared" si="1"/>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="M7" s="50">
+        <f t="shared" si="2"/>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="3"/>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="O7">
+        <v>65.48</v>
+      </c>
+      <c r="P7">
+        <v>65.42</v>
+      </c>
+      <c r="Q7">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="R7">
+        <v>65.52</v>
+      </c>
+      <c r="S7">
+        <v>65.25</v>
+      </c>
+      <c r="T7">
+        <v>64.97</v>
+      </c>
+      <c r="U7">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="V7">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="W7">
+        <v>65.05</v>
+      </c>
+      <c r="X7" s="20">
+        <v>65.22</v>
+      </c>
+      <c r="Y7" s="49">
+        <f t="shared" si="9"/>
+        <v>65.251000000000005</v>
+      </c>
+      <c r="Z7" s="52">
+        <f t="shared" si="10"/>
+        <v>0.18752481317296579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H8" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="53">
+        <v>165</v>
+      </c>
+      <c r="J8" s="53">
+        <v>165</v>
+      </c>
+      <c r="K8" s="20">
+        <v>165</v>
+      </c>
+      <c r="L8" s="50">
+        <f t="shared" si="1"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="M8" s="50">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="3"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="O8">
+        <v>67.42</v>
+      </c>
+      <c r="P8">
+        <v>66.94</v>
+      </c>
+      <c r="Q8">
+        <v>66.95</v>
+      </c>
+      <c r="R8">
+        <v>67.06</v>
+      </c>
+      <c r="S8">
+        <v>67.02</v>
+      </c>
+      <c r="T8">
+        <v>66.97</v>
+      </c>
+      <c r="U8">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="V8">
+        <v>67.11</v>
+      </c>
+      <c r="W8">
+        <v>66.86</v>
+      </c>
+      <c r="X8" s="20">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="49">
+        <f t="shared" si="9"/>
+        <v>67.034000000000006</v>
+      </c>
+      <c r="Z8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.15189177433656925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H9" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="53">
+        <v>170</v>
+      </c>
+      <c r="J9" s="53">
+        <v>170</v>
+      </c>
+      <c r="K9" s="20">
+        <v>170</v>
+      </c>
+      <c r="L9" s="50">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="M9" s="50">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O9">
+        <v>67.98</v>
+      </c>
+      <c r="P9">
+        <v>67.92</v>
+      </c>
+      <c r="Q9">
+        <v>67.94</v>
+      </c>
+      <c r="R9">
+        <v>68</v>
+      </c>
+      <c r="S9">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="T9">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="U9">
+        <v>68.05</v>
+      </c>
+      <c r="V9">
+        <v>68.02</v>
+      </c>
+      <c r="W9">
+        <v>68.14</v>
+      </c>
+      <c r="X9" s="20">
+        <v>68.17</v>
+      </c>
+      <c r="Y9" s="49">
+        <f t="shared" si="9"/>
+        <v>68.122</v>
+      </c>
+      <c r="Z9" s="52">
+        <f t="shared" si="10"/>
+        <v>0.315023808624045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H10" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="53">
+        <v>140</v>
+      </c>
+      <c r="J10" s="53">
+        <v>140</v>
+      </c>
+      <c r="K10" s="20">
+        <v>140</v>
+      </c>
+      <c r="L10" s="54">
+        <f t="shared" si="1"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="M10" s="54">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274606E-2</v>
+      </c>
+      <c r="O10">
+        <v>46.27</v>
+      </c>
+      <c r="P10">
+        <v>46.4</v>
+      </c>
+      <c r="Q10">
+        <v>46.4</v>
+      </c>
+      <c r="R10">
+        <v>46.35</v>
+      </c>
+      <c r="S10">
+        <v>46.22</v>
+      </c>
+      <c r="T10">
+        <v>46.14</v>
+      </c>
+      <c r="U10">
+        <v>46.14</v>
+      </c>
+      <c r="V10">
+        <v>46.12</v>
+      </c>
+      <c r="W10">
+        <v>46.27</v>
+      </c>
+      <c r="X10" s="20">
+        <v>46.07</v>
+      </c>
+      <c r="Y10" s="49">
+        <f t="shared" si="9"/>
+        <v>46.237999999999992</v>
+      </c>
+      <c r="Z10" s="52">
+        <f t="shared" si="10"/>
+        <v>0.11961047891663457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H11" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="53">
+        <v>145</v>
+      </c>
+      <c r="J11" s="53">
+        <v>145</v>
+      </c>
+      <c r="K11" s="20">
+        <v>145</v>
+      </c>
+      <c r="L11" s="54">
+        <f t="shared" si="1"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="M11" s="54">
+        <f t="shared" si="2"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="3"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="O11">
+        <v>49.59</v>
+      </c>
+      <c r="P11">
+        <v>49.6</v>
+      </c>
+      <c r="Q11">
+        <v>49.56</v>
+      </c>
+      <c r="R11">
+        <v>49.44</v>
+      </c>
+      <c r="S11">
+        <v>49.41</v>
+      </c>
+      <c r="T11">
+        <v>49.33</v>
+      </c>
+      <c r="U11">
+        <v>49.38</v>
+      </c>
+      <c r="V11">
+        <v>49.35</v>
+      </c>
+      <c r="W11">
+        <v>49.16</v>
+      </c>
+      <c r="X11" s="20">
+        <v>49.15</v>
+      </c>
+      <c r="Y11" s="49">
+        <f t="shared" ref="Y10:Y13" si="11">AVERAGE(O11:X11)</f>
+        <v>49.397000000000006</v>
+      </c>
+      <c r="Z11" s="52">
+        <f t="shared" ref="Z10:Z13" si="12">STDEV(O11:X11)</f>
+        <v>0.16028100324118424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="49">
+        <v>128</v>
+      </c>
+      <c r="J12" s="49">
+        <v>128</v>
+      </c>
+      <c r="K12" s="20">
+        <v>128</v>
+      </c>
+      <c r="L12" s="49">
+        <f>(I12/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="M12" s="49">
+        <f>(J12/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="N12" s="20">
+        <f>(K12/255)*2-1</f>
+        <v>3.9215686274509665E-3</v>
+      </c>
+      <c r="O12" s="49">
+        <v>36.79</v>
+      </c>
+      <c r="P12" s="49">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>36.82</v>
+      </c>
+      <c r="R12" s="49">
+        <v>36.82</v>
+      </c>
+      <c r="S12" s="49">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="T12" s="49">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="U12" s="49">
+        <v>36.54</v>
+      </c>
+      <c r="V12" s="49">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="W12" s="49">
+        <v>36.49</v>
+      </c>
+      <c r="X12" s="20">
+        <v>36.47</v>
+      </c>
+      <c r="Y12" s="49">
+        <f t="shared" si="11"/>
+        <v>36.688000000000002</v>
+      </c>
+      <c r="Z12" s="52">
+        <f t="shared" si="12"/>
+        <v>0.15611961226358914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="22">
+        <v>133</v>
+      </c>
+      <c r="J13" s="22">
+        <v>133</v>
+      </c>
+      <c r="K13" s="32">
+        <v>133</v>
+      </c>
+      <c r="L13" s="22">
+        <f>(I13/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="M13" s="22">
+        <f>(J13/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="N13" s="32">
+        <f>(K13/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="O13" s="22">
+        <v>39.78</v>
+      </c>
+      <c r="P13" s="22">
+        <v>40.06</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>39.96</v>
+      </c>
+      <c r="R13" s="22">
+        <v>40.08</v>
+      </c>
+      <c r="S13" s="22">
+        <v>39.99</v>
+      </c>
+      <c r="T13" s="22">
+        <v>39.82</v>
+      </c>
+      <c r="U13" s="22">
+        <v>39.78</v>
+      </c>
+      <c r="V13" s="22">
+        <v>39.93</v>
+      </c>
+      <c r="W13" s="22">
+        <v>40.03</v>
+      </c>
+      <c r="X13" s="32">
+        <v>40.01</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="11"/>
+        <v>39.944000000000003</v>
+      </c>
+      <c r="Z13" s="44">
+        <f t="shared" si="12"/>
+        <v>0.1132548748031033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>117</v>
+      </c>
+      <c r="J14">
+        <v>207</v>
+      </c>
+      <c r="K14" s="20">
+        <v>253</v>
+      </c>
+      <c r="L14" s="4">
+        <f>(I14/255)*2-1</f>
+        <v>-8.2352941176470629E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <f>(J14/255)*2-1</f>
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="N14" s="25">
+        <f>(K14/255)*2-1</f>
+        <v>0.98431372549019613</v>
+      </c>
+      <c r="O14" s="19">
+        <v>1</v>
+      </c>
+      <c r="P14" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>3</v>
+      </c>
+      <c r="R14" s="19">
+        <v>4</v>
+      </c>
+      <c r="S14" s="19">
+        <v>5</v>
+      </c>
+      <c r="T14" s="19">
+        <v>6</v>
+      </c>
+      <c r="U14" s="19">
+        <v>7</v>
+      </c>
+      <c r="V14" s="19">
+        <v>8</v>
+      </c>
+      <c r="W14" s="19">
+        <v>9</v>
+      </c>
+      <c r="X14" s="26">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>119</v>
+      </c>
+      <c r="J15">
+        <v>209</v>
+      </c>
+      <c r="K15" s="20">
+        <v>255</v>
+      </c>
+      <c r="L15" s="4">
+        <f>(I15/255)*2-1</f>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <f>(J15/255)*2-1</f>
+        <v>0.63921568627450975</v>
+      </c>
+      <c r="N15" s="25">
+        <f>(K15/255)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>102.6</v>
+      </c>
+      <c r="P15">
+        <v>103</v>
+      </c>
+      <c r="Q15">
+        <v>103.8</v>
+      </c>
+      <c r="R15">
+        <v>104.3</v>
+      </c>
+      <c r="S15">
+        <v>104.4</v>
+      </c>
+      <c r="T15">
+        <v>104.1</v>
+      </c>
+      <c r="U15">
+        <v>104.3</v>
+      </c>
+      <c r="V15">
+        <v>101.3</v>
+      </c>
+      <c r="W15">
+        <v>101.7</v>
+      </c>
+      <c r="X15" s="20">
+        <v>102.1</v>
+      </c>
+      <c r="Y15">
+        <f>AVERAGE(O15:X15)</f>
+        <v>103.16</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" ref="Z15" si="13">STDEV(O15:X15)</f>
+        <v>1.1777568132306058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>105</v>
+      </c>
+      <c r="J16">
+        <v>195</v>
+      </c>
+      <c r="K16" s="20">
+        <v>241</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" ref="L16:L21" si="14">(I16/255)*2-1</f>
+        <v>-0.17647058823529416</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16:M21" si="15">(J16/255)*2-1</f>
+        <v>0.52941176470588225</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" ref="N16:N21" si="16">(K16/255)*2-1</f>
+        <v>0.8901960784313725</v>
+      </c>
+      <c r="O16">
+        <v>92.84</v>
+      </c>
+      <c r="P16">
+        <v>92.89</v>
+      </c>
+      <c r="Q16">
+        <v>92.11</v>
+      </c>
+      <c r="R16">
+        <v>92.49</v>
+      </c>
+      <c r="S16">
+        <v>92.59</v>
+      </c>
+      <c r="T16">
+        <v>92.62</v>
+      </c>
+      <c r="U16">
+        <v>92.54</v>
+      </c>
+      <c r="V16">
+        <v>92.74</v>
+      </c>
+      <c r="W16">
+        <v>92.51</v>
+      </c>
+      <c r="X16" s="20">
+        <v>92.77</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ref="Y16:Y21" si="17">AVERAGE(O16:X16)</f>
+        <v>92.61</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" ref="Z16:Z21" si="18">STDEV(O16:X16)</f>
+        <v>0.22449944320643628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>190</v>
+      </c>
+      <c r="K17" s="20">
+        <v>236</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.21568627450980393</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="15"/>
+        <v>0.49019607843137258</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="16"/>
+        <v>0.85098039215686283</v>
+      </c>
+      <c r="O17">
+        <v>82.71</v>
+      </c>
+      <c r="P17">
+        <v>83.25</v>
+      </c>
+      <c r="Q17">
+        <v>83.43</v>
+      </c>
+      <c r="R17">
+        <v>83.37</v>
+      </c>
+      <c r="S17">
+        <v>83.97</v>
+      </c>
+      <c r="T17">
+        <v>83.53</v>
+      </c>
+      <c r="U17">
+        <v>83.4</v>
+      </c>
+      <c r="V17">
+        <v>83.14</v>
+      </c>
+      <c r="W17">
+        <v>82.83</v>
+      </c>
+      <c r="X17" s="20">
+        <v>82.72</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="17"/>
+        <v>83.234999999999999</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="18"/>
+        <v>0.39789026963054552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>110</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18" s="20">
+        <v>246</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.13725490196078427</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="15"/>
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="16"/>
+        <v>0.92941176470588238</v>
+      </c>
+      <c r="O18">
+        <v>86.87</v>
+      </c>
+      <c r="P18">
+        <v>86.78</v>
+      </c>
+      <c r="Q18">
+        <v>86.79</v>
+      </c>
+      <c r="R18">
+        <v>86.72</v>
+      </c>
+      <c r="S18">
+        <v>86.7</v>
+      </c>
+      <c r="T18">
+        <v>86.43</v>
+      </c>
+      <c r="U18">
+        <v>86.73</v>
+      </c>
+      <c r="V18">
+        <v>86.72</v>
+      </c>
+      <c r="W18">
+        <v>86.72</v>
+      </c>
+      <c r="X18" s="20">
+        <v>86.54</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y21" si="19">AVERAGE(O18:X18)</f>
+        <v>86.7</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" ref="Z18:Z21" si="20">STDEV(O18:X18)</f>
+        <v>0.12649110640673397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>85</v>
+      </c>
+      <c r="J19">
+        <v>175</v>
+      </c>
+      <c r="K19" s="20">
+        <v>221</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="15"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="16"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="O19">
+        <v>71.17</v>
+      </c>
+      <c r="P19">
+        <v>71.22</v>
+      </c>
+      <c r="Q19">
+        <v>71.3</v>
+      </c>
+      <c r="R19">
+        <v>70.77</v>
+      </c>
+      <c r="S19">
+        <v>71.17</v>
+      </c>
+      <c r="T19">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="U19">
+        <v>71.42</v>
+      </c>
+      <c r="V19">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="W19">
+        <v>71.2</v>
+      </c>
+      <c r="X19" s="20">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="19"/>
+        <v>71.221000000000004</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="20"/>
+        <v>0.18168654325513606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>155</v>
+      </c>
+      <c r="K20" s="20">
+        <v>201</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.49019607843137258</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="15"/>
+        <v>0.21568627450980382</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="16"/>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="O20">
+        <v>50.25</v>
+      </c>
+      <c r="P20">
+        <v>50.38</v>
+      </c>
+      <c r="Q20">
+        <v>50.58</v>
+      </c>
+      <c r="R20">
+        <v>50.48</v>
+      </c>
+      <c r="S20">
+        <v>50.55</v>
+      </c>
+      <c r="T20">
+        <v>50.38</v>
+      </c>
+      <c r="U20">
+        <v>50.61</v>
+      </c>
+      <c r="V20">
+        <v>50.48</v>
+      </c>
+      <c r="W20">
+        <v>50.78</v>
+      </c>
+      <c r="X20" s="20">
+        <v>50.5</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="19"/>
+        <v>50.499000000000002</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="20"/>
+        <v>0.14586523460601072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21">
+        <v>53</v>
+      </c>
+      <c r="J21">
+        <v>143</v>
+      </c>
+      <c r="K21" s="20">
+        <v>189</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.584313725490196</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="15"/>
+        <v>0.1215686274509804</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" si="16"/>
+        <v>0.48235294117647065</v>
+      </c>
+      <c r="O21">
+        <v>41.18</v>
+      </c>
+      <c r="P21">
+        <v>41.13</v>
+      </c>
+      <c r="Q21">
+        <v>41.33</v>
+      </c>
+      <c r="R21">
+        <v>41.15</v>
+      </c>
+      <c r="S21">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="T21">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="U21">
+        <v>41.28</v>
+      </c>
+      <c r="V21">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="W21">
+        <v>41.08</v>
+      </c>
+      <c r="X21" s="20">
+        <v>41.15</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="19"/>
+        <v>41.05299999999999</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="20"/>
+        <v>0.2444517675670746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAFBCA0-73C5-472B-B4BF-1126A7AC28FA}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="19" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>192</v>
+      </c>
+      <c r="F3" s="20">
+        <v>192</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(D3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(E3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="I3" s="25">
+        <f>(F3/255)*2-1</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>2</v>
+      </c>
+      <c r="L3" s="19">
+        <v>3</v>
+      </c>
+      <c r="M3" s="19">
+        <v>4</v>
+      </c>
+      <c r="N3" s="19">
+        <v>5</v>
+      </c>
+      <c r="O3" s="19">
+        <v>6</v>
+      </c>
+      <c r="P3" s="19">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>8</v>
+      </c>
+      <c r="R3" s="19">
+        <v>9</v>
+      </c>
+      <c r="S3" s="26">
+        <v>10</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="57">
+        <v>194</v>
+      </c>
+      <c r="E4" s="57">
+        <v>194</v>
+      </c>
+      <c r="F4" s="58">
+        <v>194</v>
+      </c>
+      <c r="G4" s="59">
+        <f>(D4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="H4" s="59">
+        <f>(E4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="I4" s="60">
+        <f>(F4/255)*2-1</f>
+        <v>0.52156862745098032</v>
+      </c>
+      <c r="J4" s="61">
+        <v>103.1</v>
+      </c>
+      <c r="K4" s="61">
+        <v>103.3</v>
+      </c>
+      <c r="L4" s="61">
+        <v>103.3</v>
+      </c>
+      <c r="M4" s="61">
+        <v>103.9</v>
+      </c>
+      <c r="N4" s="61">
+        <v>103.6</v>
+      </c>
+      <c r="O4" s="61">
+        <v>103.2</v>
+      </c>
+      <c r="P4" s="61">
+        <v>103.4</v>
+      </c>
+      <c r="Q4" s="61">
+        <v>103.1</v>
+      </c>
+      <c r="R4" s="61">
+        <v>103.2</v>
+      </c>
+      <c r="S4" s="62">
+        <v>102.7</v>
+      </c>
+      <c r="T4" s="57">
+        <f>AVERAGE(J4:S4)</f>
+        <v>103.28000000000002</v>
+      </c>
+      <c r="U4" s="63">
+        <f t="shared" ref="U4:U7" si="0">STDEV(J4:S4)</f>
+        <v>0.31902629637347807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="53">
+        <v>175</v>
+      </c>
+      <c r="E5" s="53">
+        <v>175</v>
+      </c>
+      <c r="F5" s="20">
+        <v>175</v>
+      </c>
+      <c r="G5" s="50">
+        <f t="shared" ref="G5:I6" si="1">(D5/255)*2-1</f>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="H5" s="50">
+        <f t="shared" si="1"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="1"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="J5" s="49">
+        <v>73.47</v>
+      </c>
+      <c r="K5" s="49">
+        <v>73.08</v>
+      </c>
+      <c r="L5">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="M5">
+        <v>72.95</v>
+      </c>
+      <c r="N5">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="O5">
+        <v>72.84</v>
+      </c>
+      <c r="P5">
+        <v>72.91</v>
+      </c>
+      <c r="Q5">
+        <v>72.97</v>
+      </c>
+      <c r="R5">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="S5" s="20">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="T5" s="49">
+        <f t="shared" ref="T5:T7" si="2">AVERAGE(J5:S5)</f>
+        <v>72.988000000000014</v>
+      </c>
+      <c r="U5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.20557777657670614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="53">
+        <v>145</v>
+      </c>
+      <c r="E6" s="53">
+        <v>145</v>
+      </c>
+      <c r="F6" s="20">
+        <v>145</v>
+      </c>
+      <c r="G6" s="54">
+        <f t="shared" si="1"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="H6" s="54">
+        <f t="shared" si="1"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.13725490196078427</v>
+      </c>
+      <c r="J6">
+        <v>49.59</v>
+      </c>
+      <c r="K6">
+        <v>49.6</v>
+      </c>
+      <c r="L6">
+        <v>49.56</v>
+      </c>
+      <c r="M6">
+        <v>49.44</v>
+      </c>
+      <c r="N6">
+        <v>49.41</v>
+      </c>
+      <c r="O6">
+        <v>49.33</v>
+      </c>
+      <c r="P6">
+        <v>49.38</v>
+      </c>
+      <c r="Q6">
+        <v>49.35</v>
+      </c>
+      <c r="R6">
+        <v>49.16</v>
+      </c>
+      <c r="S6" s="20">
+        <v>49.15</v>
+      </c>
+      <c r="T6" s="49">
+        <f t="shared" si="2"/>
+        <v>49.397000000000006</v>
+      </c>
+      <c r="U6" s="52">
+        <f t="shared" si="0"/>
+        <v>0.16028100324118424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="22">
+        <v>133</v>
+      </c>
+      <c r="E7" s="22">
+        <v>133</v>
+      </c>
+      <c r="F7" s="32">
+        <v>133</v>
+      </c>
+      <c r="G7" s="34">
+        <f>(D7/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <f>(E7/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="I7" s="35">
+        <f>(F7/255)*2-1</f>
+        <v>4.3137254901960853E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <v>39.78</v>
+      </c>
+      <c r="K7" s="22">
+        <v>40.06</v>
+      </c>
+      <c r="L7" s="22">
+        <v>39.96</v>
+      </c>
+      <c r="M7" s="22">
+        <v>40.08</v>
+      </c>
+      <c r="N7" s="22">
+        <v>39.99</v>
+      </c>
+      <c r="O7" s="22">
+        <v>39.82</v>
+      </c>
+      <c r="P7" s="22">
+        <v>39.78</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>39.93</v>
+      </c>
+      <c r="R7" s="22">
+        <v>40.03</v>
+      </c>
+      <c r="S7" s="32">
+        <v>40.01</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="2"/>
+        <v>39.944000000000003</v>
+      </c>
+      <c r="U7" s="44">
+        <f t="shared" si="0"/>
+        <v>0.1132548748031033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>117</v>
+      </c>
+      <c r="E8">
+        <v>207</v>
+      </c>
+      <c r="F8" s="20">
+        <v>253</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(D8/255)*2-1</f>
+        <v>-8.2352941176470629E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(E8/255)*2-1</f>
+        <v>0.62352941176470589</v>
+      </c>
+      <c r="I8" s="25">
+        <f>(F8/255)*2-1</f>
+        <v>0.98431372549019613</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>3</v>
+      </c>
+      <c r="M8" s="19">
+        <v>4</v>
+      </c>
+      <c r="N8" s="19">
+        <v>5</v>
+      </c>
+      <c r="O8" s="19">
+        <v>6</v>
+      </c>
+      <c r="P8" s="19">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>8</v>
+      </c>
+      <c r="R8" s="19">
+        <v>9</v>
+      </c>
+      <c r="S8" s="26">
+        <v>10</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="64">
+        <v>119</v>
+      </c>
+      <c r="E9" s="64">
+        <v>209</v>
+      </c>
+      <c r="F9" s="58">
+        <v>255</v>
+      </c>
+      <c r="G9" s="65">
+        <f>(D9/255)*2-1</f>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="H9" s="65">
+        <f>(E9/255)*2-1</f>
+        <v>0.63921568627450975</v>
+      </c>
+      <c r="I9" s="60">
+        <f>(F9/255)*2-1</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="64">
+        <v>102.6</v>
+      </c>
+      <c r="K9" s="64">
+        <v>103</v>
+      </c>
+      <c r="L9" s="64">
+        <v>103.8</v>
+      </c>
+      <c r="M9" s="64">
+        <v>104.3</v>
+      </c>
+      <c r="N9" s="64">
+        <v>104.4</v>
+      </c>
+      <c r="O9" s="64">
+        <v>104.1</v>
+      </c>
+      <c r="P9" s="64">
+        <v>104.3</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>101.3</v>
+      </c>
+      <c r="R9" s="64">
+        <v>101.7</v>
+      </c>
+      <c r="S9" s="58">
+        <v>102.1</v>
+      </c>
+      <c r="T9" s="64">
+        <f>AVERAGE(J9:S9)</f>
+        <v>103.16</v>
+      </c>
+      <c r="U9" s="66">
+        <f t="shared" ref="U9:U12" si="3">STDEV(J9:S9)</f>
+        <v>1.1777568132306058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>175</v>
+      </c>
+      <c r="F10" s="20">
+        <v>221</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" ref="G10:I12" si="4">(D10/255)*2-1</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.37254901960784315</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="J10">
+        <v>71.17</v>
+      </c>
+      <c r="K10">
+        <v>71.22</v>
+      </c>
+      <c r="L10">
+        <v>71.3</v>
+      </c>
+      <c r="M10">
+        <v>70.77</v>
+      </c>
+      <c r="N10">
+        <v>71.17</v>
+      </c>
+      <c r="O10">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="P10">
+        <v>71.42</v>
+      </c>
+      <c r="Q10">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="R10">
+        <v>71.2</v>
+      </c>
+      <c r="S10" s="20">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T12" si="5">AVERAGE(J10:S10)</f>
+        <v>71.221000000000004</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18168654325513606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>155</v>
+      </c>
+      <c r="F11" s="20">
+        <v>201</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.49019607843137258</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.21568627450980382</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="4"/>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="J11">
+        <v>50.25</v>
+      </c>
+      <c r="K11">
+        <v>50.38</v>
+      </c>
+      <c r="L11">
+        <v>50.58</v>
+      </c>
+      <c r="M11">
+        <v>50.48</v>
+      </c>
+      <c r="N11">
+        <v>50.55</v>
+      </c>
+      <c r="O11">
+        <v>50.38</v>
+      </c>
+      <c r="P11">
+        <v>50.61</v>
+      </c>
+      <c r="Q11">
+        <v>50.48</v>
+      </c>
+      <c r="R11">
+        <v>50.78</v>
+      </c>
+      <c r="S11" s="20">
+        <v>50.5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>50.499000000000002</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14586523460601072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>143</v>
+      </c>
+      <c r="F12" s="20">
+        <v>189</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.584313725490196</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1215686274509804</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="4"/>
+        <v>0.48235294117647065</v>
+      </c>
+      <c r="J12">
+        <v>41.18</v>
+      </c>
+      <c r="K12">
+        <v>41.13</v>
+      </c>
+      <c r="L12">
+        <v>41.33</v>
+      </c>
+      <c r="M12">
+        <v>41.15</v>
+      </c>
+      <c r="N12">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="O12">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="P12">
+        <v>41.28</v>
+      </c>
+      <c r="Q12">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="R12">
+        <v>41.08</v>
+      </c>
+      <c r="S12" s="20">
+        <v>41.15</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>41.05299999999999</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.2444517675670746</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>